--- a/docs/jetting_grid_indices.xlsx
+++ b/docs/jetting_grid_indices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-TWT-jetting-grid\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B310AC-037F-4FD7-94CE-150F5151966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B962DD30-3C54-40C7-A95C-2F55F5BACBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="848" windowWidth="20385" windowHeight="15044" xr2:uid="{668EC2A6-C83A-410D-812D-0A4855EFC4CD}"/>
+    <workbookView xWindow="5258" yWindow="1177" windowWidth="20384" windowHeight="15046" xr2:uid="{668EC2A6-C83A-410D-812D-0A4855EFC4CD}"/>
   </bookViews>
   <sheets>
     <sheet name="style B" sheetId="3" r:id="rId1"/>
@@ -257,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +355,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -504,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,26 +663,29 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,10 +1012,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6:V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1014,34 +1023,35 @@
     <col min="2" max="17" width="4" customWidth="1"/>
     <col min="18" max="18" width="4" style="10" customWidth="1"/>
     <col min="19" max="19" width="4" customWidth="1"/>
+    <col min="21" max="21" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="52" t="s">
+    <row r="3" spans="1:22" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="58"/>
       <c r="J4" s="39" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="17">
         <v>-7</v>
       </c>
@@ -1090,7 +1100,7 @@
       <c r="R5" s="18"/>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="17">
         <v>7</v>
       </c>
@@ -1127,12 +1137,30 @@
       <c r="Q6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="53" t="s">
+      <c r="R6" s="52" t="s">
         <v>49</v>
       </c>
       <c r="S6" s="14"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V6" s="59" t="str">
+        <f>_xlfn.CONCAT("{   0, ",
+RIGHT(_xlfn.CONCAT("   ", D6),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", F6),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", H6),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", J6),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", L6),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", N6),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", P6),3),
+",   0 }")</f>
+        <v>{   0,   1,   0,   2,   0,   3,   0,   4,   0,   5,   0,   6,   0,   7,   0 }</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="17">
         <v>6</v>
       </c>
@@ -1173,12 +1201,32 @@
       <c r="Q7" s="23">
         <v>112</v>
       </c>
-      <c r="R7" s="54" t="s">
+      <c r="R7" s="53" t="s">
         <v>50</v>
       </c>
       <c r="S7" s="14"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V7" s="59" t="str">
+        <f>_xlfn.CONCAT("{ ",
+RIGHT(_xlfn.CONCAT("   ", C7),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", E7),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", G7),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", I7),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", K7),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", M7),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", O7),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", Q7),3),
+" }")</f>
+        <v>{  63,   0,  70,   0,  77,   0,  84,   0,  91,   0,  98,   0, 105,   0, 112 }</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17">
         <v>5</v>
       </c>
@@ -1215,12 +1263,30 @@
         <v>14</v>
       </c>
       <c r="Q8" s="25"/>
-      <c r="R8" s="55" t="s">
+      <c r="R8" s="54" t="s">
         <v>51</v>
       </c>
       <c r="S8" s="14"/>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V8" s="59" t="str">
+        <f>_xlfn.CONCAT("{   0, ",
+RIGHT(_xlfn.CONCAT("   ", D8),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", F8),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", H8),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", J8),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", L8),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", N8),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", P8),3),
+",   0 }")</f>
+        <v>{   0,   8,   0,   9,   0,  10,   0,  11,   0,  12,   0,  13,   0,  14,   0 }</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="17">
         <v>4</v>
       </c>
@@ -1261,12 +1327,32 @@
       <c r="Q9" s="23">
         <v>111</v>
       </c>
-      <c r="R9" s="54" t="s">
+      <c r="R9" s="53" t="s">
         <v>52</v>
       </c>
       <c r="S9" s="14"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V9" s="59" t="str">
+        <f>_xlfn.CONCAT("{ ",
+RIGHT(_xlfn.CONCAT("   ", C9),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", E9),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", G9),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", I9),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", K9),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", M9),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", O9),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", Q9),3),
+" }")</f>
+        <v>{  62,   0,  69,   0,  76,   0,  83,   0,  90,   0,  97,   0, 104,   0, 111 }</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="17">
         <v>3</v>
       </c>
@@ -1303,12 +1389,30 @@
         <v>21</v>
       </c>
       <c r="Q10" s="25"/>
-      <c r="R10" s="55" t="s">
+      <c r="R10" s="54" t="s">
         <v>53</v>
       </c>
       <c r="S10" s="14"/>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V10" s="59" t="str">
+        <f>_xlfn.CONCAT("{   0, ",
+RIGHT(_xlfn.CONCAT("   ", D10),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", F10),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", H10),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", J10),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", L10),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", N10),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", P10),3),
+",   0 }")</f>
+        <v>{   0,  15,   0,  16,   0,  17,   0,  18,   0,  19,   0,  20,   0,  21,   0 }</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="17">
         <v>2</v>
       </c>
@@ -1349,12 +1453,32 @@
       <c r="Q11" s="23">
         <v>110</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="53" t="s">
         <v>54</v>
       </c>
       <c r="S11" s="14"/>
-    </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V11" s="59" t="str">
+        <f>_xlfn.CONCAT("{ ",
+RIGHT(_xlfn.CONCAT("   ", C11),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", E11),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", G11),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", I11),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", K11),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", M11),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", O11),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", Q11),3),
+" }")</f>
+        <v>{  61,   0,  68,   0,  75,   0,  82,   0,  89,   0,  96,   0, 103,   0, 110 }</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="17">
         <v>1</v>
       </c>
@@ -1391,13 +1515,32 @@
         <v>28</v>
       </c>
       <c r="Q12" s="27"/>
-      <c r="R12" s="55" t="s">
+      <c r="R12" s="54" t="s">
         <v>55</v>
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U12" s="8"/>
+      <c r="V12" s="59" t="str">
+        <f>_xlfn.CONCAT("{   0, ",
+RIGHT(_xlfn.CONCAT("   ", D12),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", F12),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", H12),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", J12),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", L12),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", N12),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", P12),3),
+",   0 }")</f>
+        <v>{   0,  22,   0,  23,   0,  24,   0,  25,   0,  26,   0,  27,   0,  28,   0 }</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="42" t="s">
         <v>5</v>
       </c>
@@ -1449,15 +1592,36 @@
       <c r="Q13" s="23">
         <v>109</v>
       </c>
-      <c r="R13" s="54" t="s">
+      <c r="R13" s="53" t="s">
         <v>56</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="40" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U13" s="40"/>
+      <c r="V13" s="59" t="str">
+        <f>_xlfn.CONCAT("{ ",
+RIGHT(_xlfn.CONCAT("   ", C13),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", E13),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", G13),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", I13),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", K13),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", M13),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", O13),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", Q13),3),
+" }")</f>
+        <v>{  60,   0,  67,   0,  74,   0,  81,   0,  88,   0,  95,   0, 102,   0, 109 }</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="17">
         <v>-1</v>
       </c>
@@ -1494,12 +1658,30 @@
         <v>35</v>
       </c>
       <c r="Q14" s="27"/>
-      <c r="R14" s="55" t="s">
+      <c r="R14" s="54" t="s">
         <v>57</v>
       </c>
       <c r="S14" s="14"/>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V14" s="59" t="str">
+        <f>_xlfn.CONCAT("{   0, ",
+RIGHT(_xlfn.CONCAT("   ", D14),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", F14),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", H14),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", J14),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", L14),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", N14),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", P14),3),
+",   0 }")</f>
+        <v>{   0,  29,   0,  30,   0,  31,   0,  32,   0,  33,   0,  34,   0,  35,   0 }</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17">
         <v>-2</v>
       </c>
@@ -1540,12 +1722,32 @@
       <c r="Q15" s="23">
         <v>108</v>
       </c>
-      <c r="R15" s="54" t="s">
+      <c r="R15" s="53" t="s">
         <v>58</v>
       </c>
       <c r="S15" s="14"/>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V15" s="59" t="str">
+        <f>_xlfn.CONCAT("{ ",
+RIGHT(_xlfn.CONCAT("   ", C15),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", E15),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", G15),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", I15),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", K15),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", M15),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", O15),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", Q15),3),
+" }")</f>
+        <v>{  59,   0,  66,   0,  73,   0,  80,   0,  87,   0,  94,   0, 101,   0, 108 }</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="17">
         <v>-3</v>
       </c>
@@ -1582,12 +1784,30 @@
         <v>42</v>
       </c>
       <c r="Q16" s="27"/>
-      <c r="R16" s="55" t="s">
+      <c r="R16" s="54" t="s">
         <v>59</v>
       </c>
       <c r="S16" s="14"/>
-    </row>
-    <row r="17" spans="2:19" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V16" s="59" t="str">
+        <f>_xlfn.CONCAT("{   0, ",
+RIGHT(_xlfn.CONCAT("   ", D16),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", F16),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", H16),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", J16),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", L16),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", N16),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", P16),3),
+",   0 }")</f>
+        <v>{   0,  36,   0,  37,   0,  38,   0,  39,   0,  40,   0,  41,   0,  42,   0 }</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="17">
         <v>-4</v>
       </c>
@@ -1628,12 +1848,32 @@
       <c r="Q17" s="23">
         <v>107</v>
       </c>
-      <c r="R17" s="54" t="s">
+      <c r="R17" s="53" t="s">
         <v>60</v>
       </c>
       <c r="S17" s="14"/>
-    </row>
-    <row r="18" spans="2:19" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V17" s="59" t="str">
+        <f>_xlfn.CONCAT("{ ",
+RIGHT(_xlfn.CONCAT("   ", C17),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", E17),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", G17),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", I17),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", K17),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", M17),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", O17),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", Q17),3),
+" }")</f>
+        <v>{  58,   0,  65,   0,  72,   0,  79,   0,  86,   0,  93,   0, 100,   0, 107 }</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="17">
         <v>-5</v>
       </c>
@@ -1670,12 +1910,30 @@
         <v>49</v>
       </c>
       <c r="Q18" s="27"/>
-      <c r="R18" s="55" t="s">
+      <c r="R18" s="54" t="s">
         <v>61</v>
       </c>
       <c r="S18" s="14"/>
-    </row>
-    <row r="19" spans="2:19" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V18" s="59" t="str">
+        <f>_xlfn.CONCAT("{   0, ",
+RIGHT(_xlfn.CONCAT("   ", D18),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", F18),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", H18),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", J18),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", L18),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", N18),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", P18),3),
+",   0 }")</f>
+        <v>{   0,  43,   0,  44,   0,  45,   0,  46,   0,  47,   0,  48,   0,  49,   0 }</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="17">
         <v>-6</v>
       </c>
@@ -1716,12 +1974,32 @@
       <c r="Q19" s="23">
         <v>106</v>
       </c>
-      <c r="R19" s="54" t="s">
+      <c r="R19" s="53" t="s">
         <v>62</v>
       </c>
       <c r="S19" s="14"/>
-    </row>
-    <row r="20" spans="2:19" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V19" s="59" t="str">
+        <f>_xlfn.CONCAT("{ ",
+RIGHT(_xlfn.CONCAT("   ", C19),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", E19),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", G19),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", I19),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", K19),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", M19),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", O19),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", Q19),3),
+" }")</f>
+        <v>{  57,   0,  64,   0,  71,   0,  78,   0,  85,   0,  92,   0,  99,   0, 106 }</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="17">
         <v>-7</v>
       </c>
@@ -1758,64 +2036,82 @@
       <c r="Q20" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="R20" s="55" t="s">
+      <c r="R20" s="54" t="s">
         <v>63</v>
       </c>
       <c r="S20" s="14"/>
-    </row>
-    <row r="21" spans="2:19" s="9" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V20" s="59" t="str">
+        <f>_xlfn.CONCAT("{   0, ",
+RIGHT(_xlfn.CONCAT("   ", D20),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", F20),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", H20),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", J20),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", L20),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", N20),3),
+",   0, ",
+RIGHT(_xlfn.CONCAT("   ", P20),3),
+",   0 }")</f>
+        <v>{   0,  50,   0,  51,   0,  52,   0,  53,   0,  54,   0,  55,   0,  56,   0 }</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" s="9" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="18"/>
-      <c r="C21" s="56">
+      <c r="C21" s="55">
         <v>240</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="56">
         <v>241</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="56">
         <v>242</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="56">
         <v>243</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="56">
         <v>244</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="56">
         <v>245</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="56">
         <v>246</v>
       </c>
-      <c r="J21" s="57">
+      <c r="J21" s="56">
         <v>247</v>
       </c>
-      <c r="K21" s="57">
+      <c r="K21" s="56">
         <v>248</v>
       </c>
-      <c r="L21" s="57">
+      <c r="L21" s="56">
         <v>249</v>
       </c>
-      <c r="M21" s="57">
+      <c r="M21" s="56">
         <v>250</v>
       </c>
-      <c r="N21" s="57">
+      <c r="N21" s="56">
         <v>251</v>
       </c>
-      <c r="O21" s="57">
+      <c r="O21" s="56">
         <v>252</v>
       </c>
-      <c r="P21" s="57">
+      <c r="P21" s="56">
         <v>253</v>
       </c>
-      <c r="Q21" s="57">
+      <c r="Q21" s="56">
         <v>254</v>
       </c>
-      <c r="R21" s="58">
+      <c r="R21" s="57">
         <v>255</v>
       </c>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="2:19" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1836,7 +2132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:19" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J23" s="41" t="s">
         <v>4</v>
       </c>
@@ -1879,10 +2175,10 @@
     </row>
     <row r="3" spans="1:20" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="58"/>
       <c r="J4" s="39" t="s">
         <v>2</v>
       </c>
@@ -1890,8 +2186,8 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="17">
         <v>-7</v>
       </c>

--- a/docs/jetting_grid_indices.xlsx
+++ b/docs/jetting_grid_indices.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-TWT-jetting-grid\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC26C59-B061-4E6F-A495-5E091944EC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC78EBE-1B90-4957-B5A0-08A3DEE39ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26311" windowHeight="16395" xr2:uid="{668EC2A6-C83A-410D-812D-0A4855EFC4CD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26311" windowHeight="16395" activeTab="2" xr2:uid="{668EC2A6-C83A-410D-812D-0A4855EFC4CD}"/>
   </bookViews>
   <sheets>
     <sheet name="indices" sheetId="3" r:id="rId1"/>
     <sheet name="evens-odds" sheetId="5" r:id="rId2"/>
+    <sheet name="print-out" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'evens-odds'!$A$1:$T$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">indices!$A$1:$T$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'print-out'!$A$2:$S$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
   <si>
     <t>Physical valves start with number 1</t>
   </si>
@@ -257,13 +259,16 @@
   </si>
   <si>
     <t>hallway side</t>
+  </si>
+  <si>
+    <t>Jetting valve locations and protocol coordinate system</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +376,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -530,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,6 +698,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1013,7 +1041,7 @@
   </sheetPr>
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2949,4 +2977,851 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E873E89-887B-4C7F-81E0-4A8AE03CF893}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="17" width="4" customWidth="1"/>
+    <col min="18" max="18" width="4" style="10" customWidth="1"/>
+    <col min="19" max="19" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J4" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="I5" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="16">
+        <v>-7</v>
+      </c>
+      <c r="D6" s="16">
+        <v>-6</v>
+      </c>
+      <c r="E6" s="16">
+        <v>-5</v>
+      </c>
+      <c r="F6" s="16">
+        <v>-4</v>
+      </c>
+      <c r="G6" s="16">
+        <v>-3</v>
+      </c>
+      <c r="H6" s="16">
+        <v>-2</v>
+      </c>
+      <c r="I6" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6" s="16">
+        <v>2</v>
+      </c>
+      <c r="M6" s="16">
+        <v>3</v>
+      </c>
+      <c r="N6" s="16">
+        <v>4</v>
+      </c>
+      <c r="O6" s="16">
+        <v>5</v>
+      </c>
+      <c r="P6" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>7</v>
+      </c>
+      <c r="R6" s="17"/>
+    </row>
+    <row r="7" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="16">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18">
+        <v>5</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18">
+        <v>9</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18">
+        <v>13</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="18">
+        <v>17</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="18">
+        <v>21</v>
+      </c>
+      <c r="O7" s="19"/>
+      <c r="P7" s="18">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="16">
+        <v>7</v>
+      </c>
+      <c r="U7" s="43"/>
+    </row>
+    <row r="8" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="16">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21">
+        <v>109</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4">
+        <v>110</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="4">
+        <v>111</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="4">
+        <v>112</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="6">
+        <v>32</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="6">
+        <v>31</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="6">
+        <v>30</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>29</v>
+      </c>
+      <c r="R8" s="16">
+        <v>6</v>
+      </c>
+      <c r="U8" s="43"/>
+    </row>
+    <row r="9" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="16">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="3">
+        <v>10</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="3">
+        <v>14</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="3">
+        <v>18</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="3">
+        <v>22</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="16">
+        <v>5</v>
+      </c>
+      <c r="U9" s="43"/>
+    </row>
+    <row r="10" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="16">
+        <v>4</v>
+      </c>
+      <c r="C10" s="21">
+        <v>105</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4">
+        <v>106</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4">
+        <v>107</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="4">
+        <v>108</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="6">
+        <v>36</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="6">
+        <v>35</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="6">
+        <v>34</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="22">
+        <v>33</v>
+      </c>
+      <c r="R10" s="16">
+        <v>4</v>
+      </c>
+      <c r="U10" s="43"/>
+    </row>
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="16">
+        <v>3</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="3">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3">
+        <v>11</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="3">
+        <v>15</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="3">
+        <v>19</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="3">
+        <v>23</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="16">
+        <v>3</v>
+      </c>
+      <c r="U11" s="43"/>
+    </row>
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="16">
+        <v>2</v>
+      </c>
+      <c r="C12" s="21">
+        <v>101</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4">
+        <v>102</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4">
+        <v>103</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="4">
+        <v>104</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="6">
+        <v>40</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="6">
+        <v>39</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6">
+        <v>38</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="22">
+        <v>37</v>
+      </c>
+      <c r="R12" s="16">
+        <v>2</v>
+      </c>
+      <c r="U12" s="43"/>
+    </row>
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="3">
+        <v>12</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="3">
+        <v>16</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="3">
+        <v>20</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="3">
+        <v>24</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="3">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="16">
+        <v>1</v>
+      </c>
+      <c r="S13" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" s="8"/>
+      <c r="U13" s="43"/>
+    </row>
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="57"/>
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
+        <v>97</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4">
+        <v>98</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4">
+        <v>99</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="4">
+        <v>100</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="6">
+        <v>44</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="6">
+        <v>43</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="6">
+        <v>42</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>41</v>
+      </c>
+      <c r="R14" s="16">
+        <v>0</v>
+      </c>
+      <c r="S14" s="56"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="43"/>
+    </row>
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="7">
+        <v>84</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7">
+        <v>80</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="7">
+        <v>76</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="7">
+        <v>72</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7">
+        <v>68</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="7">
+        <v>64</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="7">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="16">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="U15" s="43"/>
+    </row>
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="16">
+        <v>-2</v>
+      </c>
+      <c r="C16" s="21">
+        <v>93</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4">
+        <v>94</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4">
+        <v>95</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="4">
+        <v>96</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="6">
+        <v>48</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="6">
+        <v>47</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6">
+        <v>46</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="22">
+        <v>45</v>
+      </c>
+      <c r="R16" s="16">
+        <v>-2</v>
+      </c>
+      <c r="U16" s="43"/>
+    </row>
+    <row r="17" spans="2:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="16">
+        <v>-3</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="7">
+        <v>83</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7">
+        <v>79</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="7">
+        <v>75</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="7">
+        <v>71</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="7">
+        <v>67</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="7">
+        <v>63</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="7">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="16">
+        <v>-3</v>
+      </c>
+      <c r="U17" s="43"/>
+    </row>
+    <row r="18" spans="2:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="16">
+        <v>-4</v>
+      </c>
+      <c r="C18" s="21">
+        <v>89</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4">
+        <v>90</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="4">
+        <v>91</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4">
+        <v>92</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="6">
+        <v>52</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6">
+        <v>51</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="6">
+        <v>50</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="22">
+        <v>49</v>
+      </c>
+      <c r="R18" s="16">
+        <v>-4</v>
+      </c>
+      <c r="U18" s="43"/>
+    </row>
+    <row r="19" spans="2:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="16">
+        <v>-5</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="7">
+        <v>82</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7">
+        <v>78</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="7">
+        <v>74</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="7">
+        <v>70</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="7">
+        <v>66</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="7">
+        <v>62</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="7">
+        <v>58</v>
+      </c>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="16">
+        <v>-5</v>
+      </c>
+      <c r="U19" s="43"/>
+    </row>
+    <row r="20" spans="2:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="16">
+        <v>-6</v>
+      </c>
+      <c r="C20" s="21">
+        <v>85</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4">
+        <v>86</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4">
+        <v>87</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4">
+        <v>88</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="6">
+        <v>56</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6">
+        <v>55</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6">
+        <v>54</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>53</v>
+      </c>
+      <c r="R20" s="16">
+        <v>-6</v>
+      </c>
+      <c r="U20" s="43"/>
+    </row>
+    <row r="21" spans="2:21" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="16">
+        <v>-7</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="27">
+        <v>81</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27">
+        <v>77</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="27">
+        <v>73</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="27">
+        <v>69</v>
+      </c>
+      <c r="K21" s="28"/>
+      <c r="L21" s="27">
+        <v>65</v>
+      </c>
+      <c r="M21" s="28"/>
+      <c r="N21" s="27">
+        <v>61</v>
+      </c>
+      <c r="O21" s="28"/>
+      <c r="P21" s="27">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" s="16">
+        <v>-7</v>
+      </c>
+      <c r="U21" s="43"/>
+    </row>
+    <row r="22" spans="2:21" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="17"/>
+      <c r="C22" s="16">
+        <v>-7</v>
+      </c>
+      <c r="D22" s="16">
+        <v>-6</v>
+      </c>
+      <c r="E22" s="16">
+        <v>-5</v>
+      </c>
+      <c r="F22" s="16">
+        <v>-4</v>
+      </c>
+      <c r="G22" s="16">
+        <v>-3</v>
+      </c>
+      <c r="H22" s="16">
+        <v>-2</v>
+      </c>
+      <c r="I22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>1</v>
+      </c>
+      <c r="L22" s="16">
+        <v>2</v>
+      </c>
+      <c r="M22" s="16">
+        <v>3</v>
+      </c>
+      <c r="N22" s="16">
+        <v>4</v>
+      </c>
+      <c r="O22" s="16">
+        <v>5</v>
+      </c>
+      <c r="P22" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>7</v>
+      </c>
+      <c r="R22" s="53"/>
+    </row>
+    <row r="23" spans="2:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/jetting_grid_indices.xlsx
+++ b/docs/jetting_grid_indices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-TWT-jetting-grid\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC78EBE-1B90-4957-B5A0-08A3DEE39ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C92B9F9-7C66-4BB2-958B-8991D69814AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26311" windowHeight="16395" activeTab="2" xr2:uid="{668EC2A6-C83A-410D-812D-0A4855EFC4CD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26100" windowHeight="16395" activeTab="2" xr2:uid="{668EC2A6-C83A-410D-812D-0A4855EFC4CD}"/>
   </bookViews>
   <sheets>
     <sheet name="indices" sheetId="3" r:id="rId1"/>
@@ -268,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,31 +330,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF0033CC"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFCC6600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF006600"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -388,37 +364,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF57F17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2979FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2E7D32"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFD500F9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0033CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -435,6 +419,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2979FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF57F17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD500F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E7D32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5596FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,18 +567,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,10 +574,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -593,127 +595,148 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,6 +745,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF5596FF"/>
+      <color rgb="FFD500F9"/>
+      <color rgb="FF2E7D32"/>
+      <color rgb="FF2979FF"/>
+      <color rgb="FFF57F17"/>
+      <color rgb="FF00BFA5"/>
       <color rgb="FF006600"/>
       <color rgb="FFCC6600"/>
       <color rgb="FF0033CC"/>
@@ -1045,8 +1074,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="10.796875" customWidth="1"/>
     <col min="2" max="17" width="4" customWidth="1"/>
-    <col min="18" max="18" width="4" style="10" customWidth="1"/>
+    <col min="18" max="18" width="4" style="6" customWidth="1"/>
     <col min="19" max="19" width="4" customWidth="1"/>
     <col min="20" max="20" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.33203125" customWidth="1"/>
@@ -1067,114 +1097,114 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:22" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="39" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="J5" s="33" t="s">
+      <c r="B5" s="55"/>
+      <c r="J5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="16">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="12">
         <v>-7</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>-6</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>-5</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>-4</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="12">
         <v>-3</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="12">
         <v>-2</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="12">
         <v>-1</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="12">
         <v>0</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="12">
         <v>1</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="12">
         <v>2</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="12">
         <v>3</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="12">
         <v>4</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="12">
         <v>5</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="12">
         <v>6</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="12">
         <v>7</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="9"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>7</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="43">
         <v>1</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18">
+      <c r="E7" s="14"/>
+      <c r="F7" s="43">
         <v>5</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18">
+      <c r="G7" s="14"/>
+      <c r="H7" s="43">
         <v>9</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18">
+      <c r="I7" s="14"/>
+      <c r="J7" s="43">
         <v>13</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="18">
+      <c r="K7" s="14"/>
+      <c r="L7" s="43">
         <v>17</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="18">
+      <c r="M7" s="14"/>
+      <c r="N7" s="43">
         <v>21</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="18">
+      <c r="O7" s="14"/>
+      <c r="P7" s="43">
         <v>25</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="37" t="s">
+      <c r="R7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="V7" s="43" t="str">
+      <c r="S7" s="9"/>
+      <c r="V7" s="32" t="str">
         <f>_xlfn.CONCAT("{   0, ",
 RIGHT(_xlfn.CONCAT("   ", D7),3),
 ",   0, ",
@@ -1194,51 +1224,51 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="47">
         <v>109</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="48">
         <v>110</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="4">
+      <c r="F8" s="7"/>
+      <c r="G8" s="48">
         <v>111</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="4">
+      <c r="H8" s="7"/>
+      <c r="I8" s="48">
         <v>112</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="45">
         <v>32</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="6">
+      <c r="L8" s="7"/>
+      <c r="M8" s="45">
         <v>31</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="6">
+      <c r="N8" s="7"/>
+      <c r="O8" s="45">
         <v>30</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="46">
         <v>29</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="13"/>
-      <c r="V8" s="43" t="str">
+      <c r="S8" s="9"/>
+      <c r="V8" s="32" t="str">
         <f>_xlfn.CONCAT("{ ",
 RIGHT(_xlfn.CONCAT("   ", C8),3),
 ",   0, ",
@@ -1260,47 +1290,47 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="3">
+      <c r="C9" s="16"/>
+      <c r="D9" s="44">
         <v>2</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="44">
         <v>6</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="3">
+      <c r="G9" s="7"/>
+      <c r="H9" s="44">
         <v>10</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="3">
+      <c r="I9" s="7"/>
+      <c r="J9" s="44">
         <v>14</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="3">
+      <c r="K9" s="7"/>
+      <c r="L9" s="44">
         <v>18</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="3">
+      <c r="M9" s="7"/>
+      <c r="N9" s="44">
         <v>22</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="44">
         <v>26</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="39" t="s">
+      <c r="Q9" s="17"/>
+      <c r="R9" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="V9" s="43" t="str">
+      <c r="S9" s="9"/>
+      <c r="V9" s="32" t="str">
         <f>_xlfn.CONCAT("{   0, ",
 RIGHT(_xlfn.CONCAT("   ", D9),3),
 ",   0, ",
@@ -1320,51 +1350,51 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>4</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="47">
         <v>105</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="4">
+      <c r="D10" s="7"/>
+      <c r="E10" s="48">
         <v>106</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="48">
         <v>107</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="4">
+      <c r="H10" s="7"/>
+      <c r="I10" s="48">
         <v>108</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="45">
         <v>36</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="6">
+      <c r="L10" s="7"/>
+      <c r="M10" s="45">
         <v>35</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="45">
         <v>34</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="22">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="46">
         <v>33</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="V10" s="43" t="str">
+      <c r="S10" s="9"/>
+      <c r="V10" s="32" t="str">
         <f>_xlfn.CONCAT("{ ",
 RIGHT(_xlfn.CONCAT("   ", C10),3),
 ",   0, ",
@@ -1386,47 +1416,47 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>3</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="3">
+      <c r="C11" s="16"/>
+      <c r="D11" s="44">
         <v>3</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="3">
+      <c r="E11" s="7"/>
+      <c r="F11" s="44">
         <v>7</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="44">
         <v>11</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="3">
+      <c r="I11" s="7"/>
+      <c r="J11" s="44">
         <v>15</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="3">
+      <c r="K11" s="7"/>
+      <c r="L11" s="44">
         <v>19</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="44">
         <v>23</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="3">
+      <c r="O11" s="7"/>
+      <c r="P11" s="44">
         <v>27</v>
       </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="39" t="s">
+      <c r="Q11" s="17"/>
+      <c r="R11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="13"/>
-      <c r="V11" s="43" t="str">
+      <c r="S11" s="9"/>
+      <c r="V11" s="32" t="str">
         <f>_xlfn.CONCAT("{   0, ",
 RIGHT(_xlfn.CONCAT("   ", D11),3),
 ",   0, ",
@@ -1446,51 +1476,51 @@
       </c>
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="47">
         <v>101</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4">
+      <c r="D12" s="3"/>
+      <c r="E12" s="48">
         <v>102</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4">
+      <c r="F12" s="3"/>
+      <c r="G12" s="48">
         <v>103</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="48">
         <v>104</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="45">
         <v>40</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="45">
         <v>39</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6">
+      <c r="N12" s="3"/>
+      <c r="O12" s="45">
         <v>38</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="22">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="46">
         <v>37</v>
       </c>
-      <c r="R12" s="38" t="s">
+      <c r="R12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="V12" s="43" t="str">
+      <c r="S12" s="9"/>
+      <c r="V12" s="32" t="str">
         <f>_xlfn.CONCAT("{ ",
 RIGHT(_xlfn.CONCAT("   ", C12),3),
 ",   0, ",
@@ -1512,49 +1542,49 @@
       </c>
     </row>
     <row r="13" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="3">
+      <c r="C13" s="18"/>
+      <c r="D13" s="44">
         <v>4</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3">
+      <c r="E13" s="3"/>
+      <c r="F13" s="44">
         <v>8</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3">
+      <c r="G13" s="3"/>
+      <c r="H13" s="44">
         <v>12</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="44">
         <v>16</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="44">
         <v>20</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="3">
+      <c r="M13" s="3"/>
+      <c r="N13" s="44">
         <v>24</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="3">
+      <c r="O13" s="3"/>
+      <c r="P13" s="44">
         <v>28</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="39" t="s">
+      <c r="Q13" s="19"/>
+      <c r="R13" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="43" t="str">
+      <c r="S13" s="9"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="32" t="str">
         <f>_xlfn.CONCAT("{   0, ",
 RIGHT(_xlfn.CONCAT("   ", D13),3),
 ",   0, ",
@@ -1574,66 +1604,66 @@
       </c>
     </row>
     <row r="14" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <v>0</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="47">
         <v>97</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="48">
         <v>98</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="48">
         <v>99</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="48">
         <v>100</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="45">
         <v>44</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="45">
         <v>43</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="45">
         <v>42</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="46">
         <v>41</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="34" t="s">
+      <c r="S14" s="9"/>
+      <c r="T14" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="U14" s="34"/>
-      <c r="V14" s="43" t="str">
+      <c r="U14" s="25"/>
+      <c r="V14" s="32" t="str">
         <f>_xlfn.CONCAT("{ ",
 RIGHT(_xlfn.CONCAT("   ", C14),3),
 ",   0, ",
@@ -1655,50 +1685,50 @@
       </c>
     </row>
     <row r="15" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <v>-1</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="7">
+      <c r="C15" s="18"/>
+      <c r="D15" s="49">
         <v>84</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7">
+      <c r="E15" s="3"/>
+      <c r="F15" s="49">
         <v>80</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7">
+      <c r="G15" s="3"/>
+      <c r="H15" s="49">
         <v>76</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="49">
         <v>72</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="49">
         <v>68</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="7">
+      <c r="M15" s="3"/>
+      <c r="N15" s="49">
         <v>64</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="7">
+      <c r="O15" s="3"/>
+      <c r="P15" s="49">
         <v>60</v>
       </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="39" t="s">
+      <c r="Q15" s="19"/>
+      <c r="R15" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="51" t="s">
+      <c r="S15" s="9"/>
+      <c r="T15" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="V15" s="43" t="str">
+      <c r="V15" s="32" t="str">
         <f>_xlfn.CONCAT("{   0, ",
 RIGHT(_xlfn.CONCAT("   ", D15),3),
 ",   0, ",
@@ -1718,51 +1748,51 @@
       </c>
     </row>
     <row r="16" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <v>-2</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="47">
         <v>93</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4">
+      <c r="D16" s="3"/>
+      <c r="E16" s="48">
         <v>94</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4">
+      <c r="F16" s="3"/>
+      <c r="G16" s="48">
         <v>95</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="48">
         <v>96</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="45">
         <v>48</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="45">
         <v>47</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6">
+      <c r="N16" s="3"/>
+      <c r="O16" s="45">
         <v>46</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="22">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="46">
         <v>45</v>
       </c>
-      <c r="R16" s="38" t="s">
+      <c r="R16" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="13"/>
-      <c r="V16" s="43" t="str">
+      <c r="S16" s="9"/>
+      <c r="V16" s="32" t="str">
         <f>_xlfn.CONCAT("{ ",
 RIGHT(_xlfn.CONCAT("   ", C16),3),
 ",   0, ",
@@ -1784,47 +1814,47 @@
       </c>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <v>-3</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="7">
+      <c r="C17" s="18"/>
+      <c r="D17" s="49">
         <v>83</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7">
+      <c r="E17" s="3"/>
+      <c r="F17" s="49">
         <v>79</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="49">
         <v>75</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="7">
+      <c r="I17" s="3"/>
+      <c r="J17" s="49">
         <v>71</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="7">
+      <c r="K17" s="3"/>
+      <c r="L17" s="49">
         <v>67</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="49">
         <v>63</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="7">
+      <c r="O17" s="3"/>
+      <c r="P17" s="49">
         <v>59</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="39" t="s">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="13"/>
-      <c r="V17" s="43" t="str">
+      <c r="S17" s="9"/>
+      <c r="V17" s="32" t="str">
         <f>_xlfn.CONCAT("{   0, ",
 RIGHT(_xlfn.CONCAT("   ", D17),3),
 ",   0, ",
@@ -1844,51 +1874,51 @@
       </c>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <v>-4</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="47">
         <v>89</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4">
+      <c r="D18" s="3"/>
+      <c r="E18" s="48">
         <v>90</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="48">
         <v>91</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4">
+      <c r="H18" s="3"/>
+      <c r="I18" s="48">
         <v>92</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="45">
         <v>52</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="6">
+      <c r="L18" s="3"/>
+      <c r="M18" s="45">
         <v>51</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="45">
         <v>50</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="22">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="46">
         <v>49</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="S18" s="13"/>
-      <c r="V18" s="43" t="str">
+      <c r="S18" s="9"/>
+      <c r="V18" s="32" t="str">
         <f>_xlfn.CONCAT("{ ",
 RIGHT(_xlfn.CONCAT("   ", C18),3),
 ",   0, ",
@@ -1910,47 +1940,47 @@
       </c>
     </row>
     <row r="19" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <v>-5</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="7">
+      <c r="C19" s="18"/>
+      <c r="D19" s="49">
         <v>82</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="49">
         <v>78</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7">
+      <c r="G19" s="3"/>
+      <c r="H19" s="49">
         <v>74</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="7">
+      <c r="I19" s="3"/>
+      <c r="J19" s="49">
         <v>70</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="7">
+      <c r="K19" s="3"/>
+      <c r="L19" s="49">
         <v>66</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="7">
+      <c r="M19" s="3"/>
+      <c r="N19" s="49">
         <v>62</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="O19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="49">
         <v>58</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="39" t="s">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="S19" s="13"/>
-      <c r="V19" s="43" t="str">
+      <c r="S19" s="9"/>
+      <c r="V19" s="32" t="str">
         <f>_xlfn.CONCAT("{   0, ",
 RIGHT(_xlfn.CONCAT("   ", D19),3),
 ",   0, ",
@@ -1970,51 +2000,51 @@
       </c>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <v>-6</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="47">
         <v>85</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="48">
         <v>86</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4">
+      <c r="F20" s="3"/>
+      <c r="G20" s="48">
         <v>87</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4">
+      <c r="H20" s="3"/>
+      <c r="I20" s="48">
         <v>88</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="45">
         <v>56</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="6">
+      <c r="L20" s="3"/>
+      <c r="M20" s="45">
         <v>55</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6">
+      <c r="N20" s="3"/>
+      <c r="O20" s="45">
         <v>54</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="46">
         <v>53</v>
       </c>
-      <c r="R20" s="38" t="s">
+      <c r="R20" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="S20" s="13"/>
-      <c r="V20" s="43" t="str">
+      <c r="S20" s="9"/>
+      <c r="V20" s="32" t="str">
         <f>_xlfn.CONCAT("{ ",
 RIGHT(_xlfn.CONCAT("   ", C20),3),
 ",   0, ",
@@ -2036,47 +2066,47 @@
       </c>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <v>-7</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="50">
         <v>81</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="27">
+      <c r="E21" s="20"/>
+      <c r="F21" s="50">
         <v>77</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="27">
+      <c r="G21" s="20"/>
+      <c r="H21" s="50">
         <v>73</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="27">
+      <c r="I21" s="20"/>
+      <c r="J21" s="50">
         <v>69</v>
       </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="27">
+      <c r="K21" s="20"/>
+      <c r="L21" s="50">
         <v>65</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="27">
+      <c r="M21" s="20"/>
+      <c r="N21" s="50">
         <v>61</v>
       </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="27">
+      <c r="O21" s="20"/>
+      <c r="P21" s="50">
         <v>57</v>
       </c>
-      <c r="Q21" s="31" t="s">
+      <c r="Q21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="R21" s="39" t="s">
+      <c r="R21" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="S21" s="13"/>
-      <c r="V21" s="43" t="str">
+      <c r="S21" s="9"/>
+      <c r="V21" s="32" t="str">
         <f>_xlfn.CONCAT("{   0, ",
 RIGHT(_xlfn.CONCAT("   ", D21),3),
 ",   0, ",
@@ -2095,81 +2125,81 @@
         <v>{   0,  81,   0,  77,   0,  73,   0,  69,   0,  65,   0,  61,   0,  57,   0 }</v>
       </c>
     </row>
-    <row r="22" spans="2:22" s="9" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="17"/>
-      <c r="C22" s="40">
+    <row r="22" spans="2:22" s="5" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="13"/>
+      <c r="C22" s="29">
         <v>240</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="30">
         <v>241</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="30">
         <v>242</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="30">
         <v>243</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="30">
         <v>244</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="30">
         <v>245</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="30">
         <v>246</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22" s="30">
         <v>247</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="30">
         <v>248</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="30">
         <v>249</v>
       </c>
-      <c r="M22" s="41">
+      <c r="M22" s="30">
         <v>250</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="30">
         <v>251</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="30">
         <v>252</v>
       </c>
-      <c r="P22" s="41">
+      <c r="P22" s="30">
         <v>253</v>
       </c>
-      <c r="Q22" s="41">
+      <c r="Q22" s="30">
         <v>254</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="31">
         <v>255</v>
       </c>
-      <c r="S22" s="14"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="15" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="53" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2178,7 +2208,7 @@
     <mergeCell ref="A5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2193,8 +2223,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="10.796875" customWidth="1"/>
     <col min="2" max="17" width="4" customWidth="1"/>
-    <col min="18" max="18" width="4" style="10" customWidth="1"/>
+    <col min="18" max="18" width="4" style="6" customWidth="1"/>
     <col min="19" max="19" width="4" customWidth="1"/>
     <col min="20" max="20" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.6640625" customWidth="1"/>
@@ -2215,758 +2246,758 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:22" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="39" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="J5" s="33" t="s">
+      <c r="B5" s="55"/>
+      <c r="J5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="16">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="12">
         <v>-7</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>-6</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>-5</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>-4</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="12">
         <v>-3</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="12">
         <v>-2</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="12">
         <v>-1</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="12">
         <v>0</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="12">
         <v>1</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="12">
         <v>2</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="12">
         <v>3</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="12">
         <v>4</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="12">
         <v>5</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="12">
         <v>6</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="12">
         <v>7</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="9"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>7</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="44">
+      <c r="C7" s="21"/>
+      <c r="D7" s="33">
         <v>1</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="44">
+      <c r="E7" s="14"/>
+      <c r="F7" s="33">
         <v>5</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="44">
+      <c r="G7" s="14"/>
+      <c r="H7" s="33">
         <v>9</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="44">
+      <c r="I7" s="14"/>
+      <c r="J7" s="33">
         <v>13</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="44">
+      <c r="K7" s="14"/>
+      <c r="L7" s="33">
         <v>17</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="44">
+      <c r="M7" s="14"/>
+      <c r="N7" s="33">
         <v>21</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="44">
+      <c r="O7" s="14"/>
+      <c r="P7" s="33">
         <v>25</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="37" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="V7" s="43"/>
+      <c r="S7" s="9"/>
+      <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="36">
         <v>109</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="49">
+      <c r="D8" s="8"/>
+      <c r="E8" s="38">
         <v>110</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="48">
+      <c r="F8" s="7"/>
+      <c r="G8" s="37">
         <v>111</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="49">
+      <c r="H8" s="7"/>
+      <c r="I8" s="38">
         <v>112</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="49">
+      <c r="J8" s="8"/>
+      <c r="K8" s="38">
         <v>32</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="48">
+      <c r="L8" s="7"/>
+      <c r="M8" s="37">
         <v>31</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="49">
+      <c r="N8" s="7"/>
+      <c r="O8" s="38">
         <v>30</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="45">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="34">
         <v>29</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="13"/>
-      <c r="V8" s="43"/>
+      <c r="S8" s="9"/>
+      <c r="V8" s="32"/>
     </row>
     <row r="9" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="49">
+      <c r="C9" s="16"/>
+      <c r="D9" s="38">
         <v>2</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="49">
+      <c r="E9" s="8"/>
+      <c r="F9" s="38">
         <v>6</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="49">
+      <c r="G9" s="7"/>
+      <c r="H9" s="38">
         <v>10</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="49">
+      <c r="I9" s="7"/>
+      <c r="J9" s="38">
         <v>14</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="49">
+      <c r="K9" s="7"/>
+      <c r="L9" s="38">
         <v>18</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="49">
+      <c r="M9" s="7"/>
+      <c r="N9" s="38">
         <v>22</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="49">
+      <c r="O9" s="8"/>
+      <c r="P9" s="38">
         <v>26</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="39" t="s">
+      <c r="Q9" s="17"/>
+      <c r="R9" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="V9" s="43"/>
+      <c r="S9" s="9"/>
+      <c r="V9" s="32"/>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>4</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="36">
         <v>105</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="49">
+      <c r="D10" s="7"/>
+      <c r="E10" s="38">
         <v>106</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="48">
+      <c r="F10" s="8"/>
+      <c r="G10" s="37">
         <v>107</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="49">
+      <c r="H10" s="7"/>
+      <c r="I10" s="38">
         <v>108</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="49">
+      <c r="J10" s="8"/>
+      <c r="K10" s="38">
         <v>36</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="48">
+      <c r="L10" s="7"/>
+      <c r="M10" s="37">
         <v>35</v>
       </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="49">
+      <c r="N10" s="8"/>
+      <c r="O10" s="38">
         <v>34</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="45">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="34">
         <v>33</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="V10" s="43"/>
+      <c r="S10" s="9"/>
+      <c r="V10" s="32"/>
     </row>
     <row r="11" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>3</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="48">
+      <c r="C11" s="16"/>
+      <c r="D11" s="37">
         <v>3</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="48">
+      <c r="E11" s="7"/>
+      <c r="F11" s="37">
         <v>7</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="48">
+      <c r="G11" s="8"/>
+      <c r="H11" s="37">
         <v>11</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="48">
+      <c r="I11" s="7"/>
+      <c r="J11" s="37">
         <v>15</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="48">
+      <c r="K11" s="7"/>
+      <c r="L11" s="37">
         <v>19</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="48">
+      <c r="M11" s="8"/>
+      <c r="N11" s="37">
         <v>23</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="48">
+      <c r="O11" s="7"/>
+      <c r="P11" s="37">
         <v>27</v>
       </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="39" t="s">
+      <c r="Q11" s="17"/>
+      <c r="R11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="13"/>
-      <c r="V11" s="43"/>
+      <c r="S11" s="9"/>
+      <c r="V11" s="32"/>
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="36">
         <v>101</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="49">
+      <c r="D12" s="3"/>
+      <c r="E12" s="38">
         <v>102</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="48">
+      <c r="F12" s="3"/>
+      <c r="G12" s="37">
         <v>103</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="49">
+      <c r="H12" s="8"/>
+      <c r="I12" s="38">
         <v>104</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="49">
+      <c r="J12" s="8"/>
+      <c r="K12" s="38">
         <v>40</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="48">
+      <c r="L12" s="8"/>
+      <c r="M12" s="37">
         <v>39</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="49">
+      <c r="N12" s="3"/>
+      <c r="O12" s="38">
         <v>38</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="45">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="34">
         <v>37</v>
       </c>
-      <c r="R12" s="38" t="s">
+      <c r="R12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="V12" s="43"/>
+      <c r="S12" s="9"/>
+      <c r="V12" s="32"/>
     </row>
     <row r="13" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="49">
+      <c r="C13" s="18"/>
+      <c r="D13" s="38">
         <v>4</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="49">
+      <c r="E13" s="3"/>
+      <c r="F13" s="38">
         <v>8</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="49">
+      <c r="G13" s="3"/>
+      <c r="H13" s="38">
         <v>12</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="49">
+      <c r="I13" s="8"/>
+      <c r="J13" s="38">
         <v>16</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="49">
+      <c r="K13" s="8"/>
+      <c r="L13" s="38">
         <v>20</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="49">
+      <c r="M13" s="3"/>
+      <c r="N13" s="38">
         <v>24</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="49">
+      <c r="O13" s="3"/>
+      <c r="P13" s="38">
         <v>28</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="39" t="s">
+      <c r="Q13" s="19"/>
+      <c r="R13" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="43"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="32"/>
     </row>
     <row r="14" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <v>0</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="36">
         <v>97</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="49">
+      <c r="D14" s="8"/>
+      <c r="E14" s="38">
         <v>98</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="48">
+      <c r="F14" s="8"/>
+      <c r="G14" s="37">
         <v>99</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="49">
+      <c r="H14" s="8"/>
+      <c r="I14" s="38">
         <v>100</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="49">
+      <c r="J14" s="8"/>
+      <c r="K14" s="38">
         <v>44</v>
       </c>
-      <c r="L14" s="32"/>
-      <c r="M14" s="48">
+      <c r="L14" s="24"/>
+      <c r="M14" s="37">
         <v>43</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="49">
+      <c r="N14" s="24"/>
+      <c r="O14" s="38">
         <v>42</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="45">
+      <c r="P14" s="24"/>
+      <c r="Q14" s="34">
         <v>41</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="34" t="s">
+      <c r="S14" s="9"/>
+      <c r="T14" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="U14" s="34"/>
-      <c r="V14" s="43"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="32"/>
     </row>
     <row r="15" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <v>-1</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="49">
+      <c r="C15" s="18"/>
+      <c r="D15" s="38">
         <v>84</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="49">
+      <c r="E15" s="3"/>
+      <c r="F15" s="38">
         <v>80</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="49">
+      <c r="G15" s="3"/>
+      <c r="H15" s="38">
         <v>76</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="49">
+      <c r="I15" s="8"/>
+      <c r="J15" s="38">
         <v>72</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="49">
+      <c r="K15" s="8"/>
+      <c r="L15" s="38">
         <v>68</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="49">
+      <c r="M15" s="3"/>
+      <c r="N15" s="38">
         <v>64</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="49">
+      <c r="O15" s="3"/>
+      <c r="P15" s="38">
         <v>60</v>
       </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="39" t="s">
+      <c r="Q15" s="19"/>
+      <c r="R15" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="51" t="s">
+      <c r="S15" s="9"/>
+      <c r="T15" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="V15" s="43"/>
+      <c r="V15" s="32"/>
     </row>
     <row r="16" spans="1:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <v>-2</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="36">
         <v>93</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="49">
+      <c r="D16" s="3"/>
+      <c r="E16" s="38">
         <v>94</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="48">
+      <c r="F16" s="3"/>
+      <c r="G16" s="37">
         <v>95</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="49">
+      <c r="H16" s="8"/>
+      <c r="I16" s="38">
         <v>96</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="49">
+      <c r="J16" s="8"/>
+      <c r="K16" s="38">
         <v>48</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="48">
+      <c r="L16" s="8"/>
+      <c r="M16" s="37">
         <v>47</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="49">
+      <c r="N16" s="3"/>
+      <c r="O16" s="38">
         <v>46</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="45">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="34">
         <v>45</v>
       </c>
-      <c r="R16" s="38" t="s">
+      <c r="R16" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="13"/>
-      <c r="V16" s="43"/>
+      <c r="S16" s="9"/>
+      <c r="V16" s="32"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <v>-3</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="48">
+      <c r="C17" s="18"/>
+      <c r="D17" s="37">
         <v>83</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="48">
+      <c r="E17" s="3"/>
+      <c r="F17" s="37">
         <v>79</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="48">
+      <c r="G17" s="8"/>
+      <c r="H17" s="37">
         <v>75</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="48">
+      <c r="I17" s="3"/>
+      <c r="J17" s="37">
         <v>71</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="48">
+      <c r="K17" s="3"/>
+      <c r="L17" s="37">
         <v>67</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="48">
+      <c r="M17" s="8"/>
+      <c r="N17" s="37">
         <v>63</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="48">
+      <c r="O17" s="3"/>
+      <c r="P17" s="37">
         <v>59</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="39" t="s">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="13"/>
-      <c r="V17" s="43"/>
+      <c r="S17" s="9"/>
+      <c r="V17" s="32"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <v>-4</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="36">
         <v>89</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="49">
+      <c r="D18" s="3"/>
+      <c r="E18" s="38">
         <v>90</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="48">
+      <c r="F18" s="8"/>
+      <c r="G18" s="37">
         <v>91</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="49">
+      <c r="H18" s="3"/>
+      <c r="I18" s="38">
         <v>92</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="49">
+      <c r="J18" s="8"/>
+      <c r="K18" s="38">
         <v>52</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="48">
+      <c r="L18" s="3"/>
+      <c r="M18" s="37">
         <v>51</v>
       </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="49">
+      <c r="N18" s="8"/>
+      <c r="O18" s="38">
         <v>50</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="45">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="34">
         <v>49</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="S18" s="13"/>
-      <c r="V18" s="43"/>
+      <c r="S18" s="9"/>
+      <c r="V18" s="32"/>
     </row>
     <row r="19" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <v>-5</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="49">
+      <c r="C19" s="18"/>
+      <c r="D19" s="38">
         <v>82</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="49">
+      <c r="E19" s="8"/>
+      <c r="F19" s="38">
         <v>78</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="49">
+      <c r="G19" s="3"/>
+      <c r="H19" s="38">
         <v>74</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="49">
+      <c r="I19" s="3"/>
+      <c r="J19" s="38">
         <v>70</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="49">
+      <c r="K19" s="3"/>
+      <c r="L19" s="38">
         <v>66</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="49">
+      <c r="M19" s="3"/>
+      <c r="N19" s="38">
         <v>62</v>
       </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="49">
+      <c r="O19" s="8"/>
+      <c r="P19" s="38">
         <v>58</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="39" t="s">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="S19" s="13"/>
-      <c r="V19" s="43"/>
+      <c r="S19" s="9"/>
+      <c r="V19" s="32"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <v>-6</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="36">
         <v>85</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="49">
+      <c r="D20" s="8"/>
+      <c r="E20" s="38">
         <v>86</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="48">
+      <c r="F20" s="3"/>
+      <c r="G20" s="37">
         <v>87</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="49">
+      <c r="H20" s="3"/>
+      <c r="I20" s="38">
         <v>88</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="49">
+      <c r="J20" s="8"/>
+      <c r="K20" s="38">
         <v>56</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="48">
+      <c r="L20" s="3"/>
+      <c r="M20" s="37">
         <v>55</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="49">
+      <c r="N20" s="3"/>
+      <c r="O20" s="38">
         <v>54</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="45">
+      <c r="P20" s="8"/>
+      <c r="Q20" s="34">
         <v>53</v>
       </c>
-      <c r="R20" s="38" t="s">
+      <c r="R20" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="S20" s="13"/>
-      <c r="V20" s="43"/>
+      <c r="S20" s="9"/>
+      <c r="V20" s="32"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <v>-7</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="46">
+      <c r="C21" s="22"/>
+      <c r="D21" s="35">
         <v>81</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="46">
+      <c r="E21" s="20"/>
+      <c r="F21" s="35">
         <v>77</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="46">
+      <c r="G21" s="20"/>
+      <c r="H21" s="35">
         <v>73</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="46">
+      <c r="I21" s="20"/>
+      <c r="J21" s="35">
         <v>69</v>
       </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="46">
+      <c r="K21" s="20"/>
+      <c r="L21" s="35">
         <v>65</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="46">
+      <c r="M21" s="20"/>
+      <c r="N21" s="35">
         <v>61</v>
       </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="46">
+      <c r="O21" s="20"/>
+      <c r="P21" s="35">
         <v>57</v>
       </c>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="39" t="s">
+      <c r="Q21" s="23"/>
+      <c r="R21" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="S21" s="13"/>
-      <c r="V21" s="43"/>
-    </row>
-    <row r="22" spans="2:22" s="9" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="17"/>
-      <c r="C22" s="40">
+      <c r="S21" s="9"/>
+      <c r="V21" s="32"/>
+    </row>
+    <row r="22" spans="2:22" s="5" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="13"/>
+      <c r="C22" s="29">
         <v>240</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="30">
         <v>241</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="30">
         <v>242</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="30">
         <v>243</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="30">
         <v>244</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="30">
         <v>245</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="30">
         <v>246</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22" s="30">
         <v>247</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="30">
         <v>248</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="30">
         <v>249</v>
       </c>
-      <c r="M22" s="41">
+      <c r="M22" s="30">
         <v>250</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="30">
         <v>251</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="30">
         <v>252</v>
       </c>
-      <c r="P22" s="41">
+      <c r="P22" s="30">
         <v>253</v>
       </c>
-      <c r="Q22" s="41">
+      <c r="Q22" s="30">
         <v>254</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="31">
         <v>255</v>
       </c>
-      <c r="S22" s="14"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="15" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="53" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2975,7 +3006,7 @@
     <mergeCell ref="A5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2987,13 +3018,14 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S24"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="10.796875" customWidth="1"/>
     <col min="2" max="17" width="4" customWidth="1"/>
-    <col min="18" max="18" width="4" style="10" customWidth="1"/>
+    <col min="18" max="18" width="4" style="6" customWidth="1"/>
     <col min="19" max="19" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.33203125" customWidth="1"/>
   </cols>
@@ -3003,7 +3035,7 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="42" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="2"/>
@@ -3012,806 +3044,806 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="39" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="I5" s="54" t="s">
+      <c r="B5" s="55"/>
+      <c r="I5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="R5" s="9"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="16">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="12">
         <v>-7</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>-6</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>-5</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>-4</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="12">
         <v>-3</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="12">
         <v>-2</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="12">
         <v>-1</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="12">
         <v>0</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="12">
         <v>1</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="12">
         <v>2</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="12">
         <v>3</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="12">
         <v>4</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="12">
         <v>5</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="12">
         <v>6</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="12">
         <v>7</v>
       </c>
-      <c r="R6" s="17"/>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>7</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="59">
         <v>1</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18">
+      <c r="E7" s="14"/>
+      <c r="F7" s="59">
         <v>5</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18">
+      <c r="G7" s="14"/>
+      <c r="H7" s="59">
         <v>9</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18">
+      <c r="I7" s="14"/>
+      <c r="J7" s="59">
         <v>13</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="18">
+      <c r="K7" s="14"/>
+      <c r="L7" s="59">
         <v>17</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="18">
+      <c r="M7" s="14"/>
+      <c r="N7" s="59">
         <v>21</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="18">
+      <c r="O7" s="14"/>
+      <c r="P7" s="59">
         <v>25</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="12">
         <v>7</v>
       </c>
-      <c r="U7" s="43"/>
+      <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="47">
         <v>109</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="48">
         <v>110</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="4">
+      <c r="F8" s="7"/>
+      <c r="G8" s="48">
         <v>111</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="4">
+      <c r="H8" s="7"/>
+      <c r="I8" s="48">
         <v>112</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="45">
         <v>32</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="6">
+      <c r="L8" s="7"/>
+      <c r="M8" s="45">
         <v>31</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="6">
+      <c r="N8" s="7"/>
+      <c r="O8" s="45">
         <v>30</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="46">
         <v>29</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="12">
         <v>6</v>
       </c>
-      <c r="U8" s="43"/>
+      <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="3">
+      <c r="C9" s="16"/>
+      <c r="D9" s="60">
         <v>2</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="60">
         <v>6</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="3">
+      <c r="G9" s="7"/>
+      <c r="H9" s="60">
         <v>10</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="3">
+      <c r="I9" s="7"/>
+      <c r="J9" s="60">
         <v>14</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="3">
+      <c r="K9" s="7"/>
+      <c r="L9" s="60">
         <v>18</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="3">
+      <c r="M9" s="7"/>
+      <c r="N9" s="60">
         <v>22</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="60">
         <v>26</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="16">
+      <c r="Q9" s="17"/>
+      <c r="R9" s="12">
         <v>5</v>
       </c>
-      <c r="U9" s="43"/>
+      <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>4</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="47">
         <v>105</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="4">
+      <c r="D10" s="7"/>
+      <c r="E10" s="48">
         <v>106</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="48">
         <v>107</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="4">
+      <c r="H10" s="7"/>
+      <c r="I10" s="48">
         <v>108</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="45">
         <v>36</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="6">
+      <c r="L10" s="7"/>
+      <c r="M10" s="45">
         <v>35</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="45">
         <v>34</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="22">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="46">
         <v>33</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="12">
         <v>4</v>
       </c>
-      <c r="U10" s="43"/>
+      <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>3</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="3">
+      <c r="C11" s="16"/>
+      <c r="D11" s="60">
         <v>3</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="3">
+      <c r="E11" s="7"/>
+      <c r="F11" s="60">
         <v>7</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="60">
         <v>11</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="3">
+      <c r="I11" s="7"/>
+      <c r="J11" s="60">
         <v>15</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="3">
+      <c r="K11" s="7"/>
+      <c r="L11" s="60">
         <v>19</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="60">
         <v>23</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="3">
+      <c r="O11" s="7"/>
+      <c r="P11" s="60">
         <v>27</v>
       </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="16">
+      <c r="Q11" s="17"/>
+      <c r="R11" s="12">
         <v>3</v>
       </c>
-      <c r="U11" s="43"/>
+      <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="47">
         <v>101</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4">
+      <c r="D12" s="3"/>
+      <c r="E12" s="48">
         <v>102</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4">
+      <c r="F12" s="3"/>
+      <c r="G12" s="48">
         <v>103</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="48">
         <v>104</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="45">
         <v>40</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="45">
         <v>39</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6">
+      <c r="N12" s="3"/>
+      <c r="O12" s="45">
         <v>38</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="22">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="46">
         <v>37</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12" s="12">
         <v>2</v>
       </c>
-      <c r="U12" s="43"/>
+      <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="3">
+      <c r="C13" s="18"/>
+      <c r="D13" s="60">
         <v>4</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3">
+      <c r="E13" s="3"/>
+      <c r="F13" s="60">
         <v>8</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3">
+      <c r="G13" s="3"/>
+      <c r="H13" s="60">
         <v>12</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="60">
         <v>16</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="60">
         <v>20</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="3">
+      <c r="M13" s="3"/>
+      <c r="N13" s="60">
         <v>24</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="3">
+      <c r="O13" s="3"/>
+      <c r="P13" s="60">
         <v>28</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="16">
+      <c r="Q13" s="19"/>
+      <c r="R13" s="12">
         <v>1</v>
       </c>
-      <c r="S13" s="56" t="s">
+      <c r="S13" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="43"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="32"/>
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="57"/>
-      <c r="B14" s="16">
+      <c r="A14" s="58"/>
+      <c r="B14" s="12">
         <v>0</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="47">
         <v>97</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="48">
         <v>98</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="48">
         <v>99</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="48">
         <v>100</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="45">
         <v>44</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="45">
         <v>43</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="45">
         <v>42</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="46">
         <v>41</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14" s="12">
         <v>0</v>
       </c>
-      <c r="S14" s="56"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="43"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="32"/>
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <v>-1</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="7">
+      <c r="C15" s="18"/>
+      <c r="D15" s="49">
         <v>84</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7">
+      <c r="E15" s="3"/>
+      <c r="F15" s="49">
         <v>80</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7">
+      <c r="G15" s="3"/>
+      <c r="H15" s="49">
         <v>76</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="49">
         <v>72</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="49">
         <v>68</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="7">
+      <c r="M15" s="3"/>
+      <c r="N15" s="49">
         <v>64</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="7">
+      <c r="O15" s="3"/>
+      <c r="P15" s="49">
         <v>60</v>
       </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="16">
+      <c r="Q15" s="19"/>
+      <c r="R15" s="12">
         <v>-1</v>
       </c>
-      <c r="S15" s="51" t="s">
+      <c r="S15" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="U15" s="43"/>
+      <c r="U15" s="32"/>
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <v>-2</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="47">
         <v>93</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4">
+      <c r="D16" s="3"/>
+      <c r="E16" s="48">
         <v>94</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4">
+      <c r="F16" s="3"/>
+      <c r="G16" s="48">
         <v>95</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="48">
         <v>96</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="45">
         <v>48</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="45">
         <v>47</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6">
+      <c r="N16" s="3"/>
+      <c r="O16" s="45">
         <v>46</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="22">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="46">
         <v>45</v>
       </c>
-      <c r="R16" s="16">
+      <c r="R16" s="12">
         <v>-2</v>
       </c>
-      <c r="U16" s="43"/>
+      <c r="U16" s="32"/>
     </row>
     <row r="17" spans="2:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <v>-3</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="7">
+      <c r="C17" s="18"/>
+      <c r="D17" s="49">
         <v>83</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7">
+      <c r="E17" s="3"/>
+      <c r="F17" s="49">
         <v>79</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="49">
         <v>75</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="7">
+      <c r="I17" s="3"/>
+      <c r="J17" s="49">
         <v>71</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="7">
+      <c r="K17" s="3"/>
+      <c r="L17" s="49">
         <v>67</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="49">
         <v>63</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="7">
+      <c r="O17" s="3"/>
+      <c r="P17" s="49">
         <v>59</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="16">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="12">
         <v>-3</v>
       </c>
-      <c r="U17" s="43"/>
+      <c r="U17" s="32"/>
     </row>
     <row r="18" spans="2:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <v>-4</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="47">
         <v>89</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4">
+      <c r="D18" s="3"/>
+      <c r="E18" s="48">
         <v>90</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="48">
         <v>91</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4">
+      <c r="H18" s="3"/>
+      <c r="I18" s="48">
         <v>92</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="45">
         <v>52</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="6">
+      <c r="L18" s="3"/>
+      <c r="M18" s="45">
         <v>51</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="45">
         <v>50</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="22">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="46">
         <v>49</v>
       </c>
-      <c r="R18" s="16">
+      <c r="R18" s="12">
         <v>-4</v>
       </c>
-      <c r="U18" s="43"/>
+      <c r="U18" s="32"/>
     </row>
     <row r="19" spans="2:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <v>-5</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="7">
+      <c r="C19" s="18"/>
+      <c r="D19" s="49">
         <v>82</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="49">
         <v>78</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7">
+      <c r="G19" s="3"/>
+      <c r="H19" s="49">
         <v>74</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="7">
+      <c r="I19" s="3"/>
+      <c r="J19" s="49">
         <v>70</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="7">
+      <c r="K19" s="3"/>
+      <c r="L19" s="49">
         <v>66</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="7">
+      <c r="M19" s="3"/>
+      <c r="N19" s="49">
         <v>62</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="O19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="49">
         <v>58</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="16">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="12">
         <v>-5</v>
       </c>
-      <c r="U19" s="43"/>
+      <c r="U19" s="32"/>
     </row>
     <row r="20" spans="2:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <v>-6</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="47">
         <v>85</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="48">
         <v>86</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4">
+      <c r="F20" s="3"/>
+      <c r="G20" s="48">
         <v>87</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4">
+      <c r="H20" s="3"/>
+      <c r="I20" s="48">
         <v>88</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="45">
         <v>56</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="6">
+      <c r="L20" s="3"/>
+      <c r="M20" s="45">
         <v>55</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6">
+      <c r="N20" s="3"/>
+      <c r="O20" s="45">
         <v>54</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="46">
         <v>53</v>
       </c>
-      <c r="R20" s="16">
+      <c r="R20" s="12">
         <v>-6</v>
       </c>
-      <c r="U20" s="43"/>
+      <c r="U20" s="32"/>
     </row>
     <row r="21" spans="2:21" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <v>-7</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="50">
         <v>81</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="27">
+      <c r="E21" s="20"/>
+      <c r="F21" s="50">
         <v>77</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="27">
+      <c r="G21" s="20"/>
+      <c r="H21" s="50">
         <v>73</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="27">
+      <c r="I21" s="20"/>
+      <c r="J21" s="50">
         <v>69</v>
       </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="27">
+      <c r="K21" s="20"/>
+      <c r="L21" s="50">
         <v>65</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="27">
+      <c r="M21" s="20"/>
+      <c r="N21" s="50">
         <v>61</v>
       </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="27">
+      <c r="O21" s="20"/>
+      <c r="P21" s="50">
         <v>57</v>
       </c>
-      <c r="Q21" s="31" t="s">
+      <c r="Q21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R21" s="12">
         <v>-7</v>
       </c>
-      <c r="U21" s="43"/>
-    </row>
-    <row r="22" spans="2:21" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="17"/>
-      <c r="C22" s="16">
+      <c r="U21" s="32"/>
+    </row>
+    <row r="22" spans="2:21" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="13"/>
+      <c r="C22" s="12">
         <v>-7</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="12">
         <v>-6</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="12">
         <v>-5</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="12">
         <v>-4</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="12">
         <v>-3</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="12">
         <v>-2</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="12">
         <v>-1</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="12">
         <v>0</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="12">
         <v>1</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="12">
         <v>2</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="12">
         <v>3</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="12">
         <v>4</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="12">
         <v>5</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="12">
         <v>6</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="12">
         <v>7</v>
       </c>
-      <c r="R22" s="53"/>
+      <c r="R22" s="41"/>
     </row>
     <row r="23" spans="2:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I23" s="55" t="s">
+      <c r="I23" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3822,6 +3854,6 @@
     <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>